--- a/data/trans_camb/P2A_senso_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_senso_R-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-1.001430724081062</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.541364450821002</v>
+        <v>3.541364450821001</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.6397630040394873</v>
@@ -664,7 +664,7 @@
         <v>-1.320618379866369</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.971333109826179</v>
+        <v>1.971333109826178</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.652397595754575</v>
+        <v>-2.782971704076856</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.116339764268894</v>
+        <v>-3.067820140716019</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.96488939796469</v>
+        <v>-1.761955743855303</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.398053122634437</v>
+        <v>-1.451838391976556</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.20296291292018</v>
+        <v>-2.320142282462088</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.064419042782677</v>
+        <v>2.0636995380738</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.539851653193922</v>
+        <v>-1.627407358535064</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.263923678445529</v>
+        <v>-2.196944590856341</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8356774054479124</v>
+        <v>0.7966036197580798</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4581867707909486</v>
+        <v>0.245211202642126</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.2035257083005254</v>
+        <v>-0.1468088029679194</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.636954519267213</v>
+        <v>1.558212887212632</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.064105714249479</v>
+        <v>0.9469893146118362</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3717777620769719</v>
+        <v>0.267749171311975</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.267650241193969</v>
+        <v>5.440751504218259</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3400959348941481</v>
+        <v>0.2477511404486255</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.4047175253420994</v>
+        <v>-0.3891954203382222</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.174967300220437</v>
+        <v>3.202587186349495</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.3837860903156219</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1.357184660187544</v>
+        <v>1.357184660187543</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.2181692795713549</v>
@@ -769,7 +769,7 @@
         <v>-0.4503517063427324</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.6722556972665937</v>
+        <v>0.6722556972665933</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6410533664504529</v>
+        <v>-0.6588141869774236</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7630910307337367</v>
+        <v>-0.7757238188539379</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4887334021537511</v>
+        <v>-0.4493586327918329</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4371323467327238</v>
+        <v>-0.4401259871252921</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7074022655441987</v>
+        <v>-0.7121478830067451</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5992463761717584</v>
+        <v>0.6740369427668974</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4610245261574262</v>
+        <v>-0.4676669723516263</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.666893165795667</v>
+        <v>-0.6511877986967848</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2196759308573271</v>
+        <v>0.2289559642852616</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1946004878047724</v>
+        <v>0.1233782574716272</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.07536981955883132</v>
+        <v>-0.04463191553989996</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5804908141420567</v>
+        <v>0.6258455145028506</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.537918481089748</v>
+        <v>0.522790759507457</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1935931885726643</v>
+        <v>0.1408011143129395</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.695564223984718</v>
+        <v>2.914805931599494</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1228681494116631</v>
+        <v>0.1094840445498337</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1472182955230734</v>
+        <v>-0.1423679274188594</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.286203649119639</v>
+        <v>1.240088579741192</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-0.05800045495068257</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1.55601971059221</v>
+        <v>1.556019710592209</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.7047510450968751</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1669663667224742</v>
+        <v>0.1176334510744032</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.4773525491234923</v>
+        <v>-0.4737311041153348</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.996946202130114</v>
+        <v>1.046327223012583</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.2334297499247356</v>
+        <v>-0.1261415426187862</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.7569959894231038</v>
+        <v>-0.7737469256105048</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7850314006620985</v>
+        <v>0.7513299070901091</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1854232185385289</v>
+        <v>0.1787277772951889</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.4217593228248953</v>
+        <v>-0.371924517493537</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.157990522545862</v>
+        <v>1.078112212061193</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.524818458524089</v>
+        <v>1.477927931391269</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7812470970659396</v>
+        <v>0.8042632495974971</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.687920409695799</v>
+        <v>2.710231257879587</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.405844706828282</v>
+        <v>1.590602426611384</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6048148209881585</v>
+        <v>0.5446567484674079</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.413746806443388</v>
+        <v>2.376893253903715</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.234047081409512</v>
+        <v>1.246104503356814</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4502357963892228</v>
+        <v>0.4392138320048169</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.280687923931803</v>
+        <v>2.287841227639245</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.06819930234856313</v>
+        <v>0.06011728125101299</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4827216618352837</v>
+        <v>-0.4776982402637015</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.8820098223555329</v>
+        <v>0.9106125941086646</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2000922073191053</v>
+        <v>-0.132560501425827</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5291814886351972</v>
+        <v>-0.5288859499244929</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4745690321990182</v>
+        <v>0.4728185204458518</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1583648998454024</v>
+        <v>0.1424445424068952</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3767237694071327</v>
+        <v>-0.3227174900848594</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.9253298291732213</v>
+        <v>0.9040616333697277</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.281790867455698</v>
+        <v>3.470174868359344</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.623439652770114</v>
+        <v>1.773963283552636</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6.159735439685976</v>
+        <v>6.081418772385299</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.942833850779148</v>
+        <v>2.346518930111048</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9576467645797009</v>
+        <v>0.8264726787152162</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.374591266227017</v>
+        <v>3.472765100542381</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.060392743278618</v>
+        <v>1.889458464697267</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7002832770074612</v>
+        <v>0.6319003416792808</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.608593747588762</v>
+        <v>3.580387196742661</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-0.3610742338244975</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.8911829249743128</v>
+        <v>0.8911829249743125</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.6156201505639401</v>
+        <v>-0.623488023227305</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.444731727764879</v>
+        <v>-1.255436894490729</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3937745506213686</v>
+        <v>-0.3032884077681958</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5508344358901069</v>
+        <v>0.3430294908402042</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.902378441970938</v>
+        <v>-2.087933840675224</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.5538371483845164</v>
+        <v>-0.6756646242941654</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3258911412936095</v>
+        <v>0.3518776372219982</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.236907846793402</v>
+        <v>-1.146674041779261</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.07743000746279347</v>
+        <v>-0.05584318921748572</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.601948335503796</v>
+        <v>2.525979896575079</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8625696633136938</v>
+        <v>0.9082651776517693</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.118282303153742</v>
+        <v>2.237829060140709</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.730729714302603</v>
+        <v>4.709135069130378</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1452202738768687</v>
+        <v>0.152425217749037</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.734292425946514</v>
+        <v>1.741304584651589</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.837863026607183</v>
+        <v>2.920799102500479</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2518135861704908</v>
+        <v>0.321392254343877</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.696023700085974</v>
+        <v>1.688173794490189</v>
       </c>
     </row>
     <row r="19">
@@ -1208,27 +1208,27 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8221397304063184</v>
+        <v>-0.8385196052386628</v>
       </c>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>-0.5292225063127884</v>
+        <v>-0.357376148070576</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.05840613005998872</v>
+        <v>0.006344452181383848</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.3590736727583932</v>
+        <v>-0.3693714243944967</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1790916395799663</v>
+        <v>0.1202573061900023</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.8357733144522137</v>
+        <v>-0.8505913817567534</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1138122851139211</v>
+        <v>-0.1463031809954708</v>
       </c>
     </row>
     <row r="21">
@@ -1239,27 +1239,27 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>12.79696826108995</v>
+        <v>11.27257668729341</v>
       </c>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>9.74496897065057</v>
+        <v>10.45288102236496</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>10.16640371469355</v>
+        <v>9.15132205643433</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>4.491616502662731</v>
+        <v>4.240743245783339</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>6.480348910577534</v>
+        <v>5.796340231048181</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7704481865354498</v>
+        <v>0.9760695321156951</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>3.708212276425964</v>
+        <v>3.321271463282737</v>
       </c>
     </row>
     <row r="22">
@@ -1309,31 +1309,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.5018361462260202</v>
+        <v>-0.4640687472843795</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.083945195880353</v>
+        <v>-1.102809785684356</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2211545694137123</v>
+        <v>0.2247122726542411</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.160732056055523</v>
+        <v>-0.1716465146914954</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.157080638156879</v>
+        <v>-1.164173814517688</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9167996552155986</v>
+        <v>0.851500955852595</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.1088917140984556</v>
+        <v>-0.1049384286121496</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.979688552364451</v>
+        <v>-0.960460999963729</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7552989318781552</v>
+        <v>0.7840424385646985</v>
       </c>
     </row>
     <row r="24">
@@ -1344,31 +1344,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7471702432995482</v>
+        <v>0.741474422554085</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04804770624471956</v>
+        <v>0.05115934469572027</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.636242306127158</v>
+        <v>1.649108041206882</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.196066307680661</v>
+        <v>1.175266344088763</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.01016626930952574</v>
+        <v>-0.05305122555237676</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.245944519718008</v>
+        <v>2.261787209868973</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.796219281463029</v>
+        <v>0.8562155792571379</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.1632165281319843</v>
+        <v>-0.1512519458111061</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.708804636301563</v>
+        <v>1.718956031243875</v>
       </c>
     </row>
     <row r="25">
@@ -1403,7 +1403,7 @@
         <v>-0.3486452573016762</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.7837519449141738</v>
+        <v>0.783751944914174</v>
       </c>
     </row>
     <row r="26">
@@ -1414,31 +1414,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2792646007496603</v>
+        <v>-0.2438122574598197</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5816895624258754</v>
+        <v>-0.5937560944111058</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1036261541192685</v>
+        <v>0.1045634767064798</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.08581494252378218</v>
+        <v>-0.08741287971436468</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5857438970722504</v>
+        <v>-0.5847894245329468</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4461878639604542</v>
+        <v>0.4235234882055342</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.06424597201716624</v>
+        <v>-0.06421731537693529</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5325415028929773</v>
+        <v>-0.5263895301746664</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.4130409071702575</v>
+        <v>0.4179488983750161</v>
       </c>
     </row>
     <row r="27">
@@ -1449,31 +1449,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5928110141423236</v>
+        <v>0.6342869647534473</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.05757947731454066</v>
+        <v>0.04636161366328214</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.308222006237602</v>
+        <v>1.343699406741</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.9243012255801577</v>
+        <v>0.8407761199787214</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.02452674733812372</v>
+        <v>-0.01109937568100345</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.682165683373702</v>
+        <v>1.709065472261484</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.560911176558136</v>
+        <v>0.5984661187020669</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1242421652485382</v>
+        <v>-0.1045331705768951</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.267998587452291</v>
+        <v>1.236320952873099</v>
       </c>
     </row>
     <row r="28">
